--- a/data/2024/ssg/7,50_DE-7.xlsx
+++ b/data/2024/ssg/7,50_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="461">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -127,471 +127,480 @@
     <t>1.1977 -</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1a;9;16;18;19</t>
+  </si>
+  <si>
+    <t>1085720-5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Folia Uralica Debreceniensia</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Debrecen</t>
+  </si>
+  <si>
+    <t>0239-1953</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>1.1989 -</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1a;12</t>
+  </si>
+  <si>
+    <t>402174-5</t>
+  </si>
+  <si>
+    <t>Keleti szemle</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>7,50;6,23</t>
+  </si>
+  <si>
+    <t>1.1900 - 21.1932; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1095206-8</t>
+  </si>
+  <si>
+    <t>Carelia</t>
+  </si>
+  <si>
+    <t>Periodika-Kustantamo</t>
+  </si>
+  <si>
+    <t>Petroskoi</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>0868-6513</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>7,50;7,41</t>
+  </si>
+  <si>
+    <t>1095219-6</t>
+  </si>
+  <si>
+    <t>1990,7 -</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>779550-6</t>
+  </si>
+  <si>
+    <t>Fenno-Ugrica Suecana</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>0348-3045</t>
+  </si>
+  <si>
+    <t>1.1978 - 12.1994[?]</t>
+  </si>
+  <si>
+    <t>791711-9</t>
+  </si>
+  <si>
+    <t>Finno-ugristika</t>
+  </si>
+  <si>
+    <t>Tip. Krasnyj Oktjabr'</t>
+  </si>
+  <si>
+    <t>Saransk</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>1.1978 - 3.1980; 4.2000 - 9.2010; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1121418-1</t>
+  </si>
+  <si>
+    <t>Pačemyš</t>
+  </si>
+  <si>
+    <t>Periodika Marij Ėl</t>
+  </si>
+  <si>
+    <t>Joškar-Ola</t>
+  </si>
+  <si>
+    <t>0130-9269</t>
+  </si>
+  <si>
+    <t>Nachgewiesen Nr. 401.1990 -</t>
+  </si>
+  <si>
+    <t>1125013-6</t>
+  </si>
+  <si>
+    <t>Mokša</t>
+  </si>
+  <si>
+    <t>rus;mdf</t>
+  </si>
+  <si>
+    <t>0134-434X</t>
+  </si>
+  <si>
+    <t>050;800;890</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1992 -</t>
+  </si>
+  <si>
+    <t>83985-1</t>
+  </si>
+  <si>
+    <t>Literatura o Permskoj Oblasti</t>
+  </si>
+  <si>
+    <t>Permskoe Kniž. Izdat.</t>
+  </si>
+  <si>
+    <t>Perm'</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1961(1962) -</t>
+  </si>
+  <si>
+    <t>1139569-2</t>
+  </si>
+  <si>
+    <t>Ončyko</t>
+  </si>
+  <si>
+    <t>chm</t>
+  </si>
+  <si>
+    <t>0134-4358</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1957 -  ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>1139588-6</t>
+  </si>
+  <si>
+    <t>Keneš</t>
+  </si>
+  <si>
+    <t>Ižkar</t>
+  </si>
+  <si>
+    <t>0206-4227;0869-883X</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1991 -</t>
+  </si>
+  <si>
+    <t>1152517-4</t>
+  </si>
+  <si>
+    <t>d;mg</t>
+  </si>
+  <si>
+    <t>Lexica Societatis Fenno-Ugricae</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>0780-8070;0356-5769</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1.1913 -</t>
+  </si>
+  <si>
+    <t>1170401-9</t>
+  </si>
+  <si>
+    <t>Trudy po lingvistike</t>
+  </si>
+  <si>
+    <t>Moskva [u.a.]</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1.1937 - 5.1937[?]</t>
+  </si>
+  <si>
+    <t>1170696-X</t>
+  </si>
+  <si>
+    <t>Bibliotheca Hungarico-Estica Instituti Litterarum Hungarici Universitatis Tartuensis</t>
+  </si>
+  <si>
+    <t>Tartu</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>15.1934/35 nachgewiesen</t>
+  </si>
+  <si>
+    <t>216537-5</t>
+  </si>
+  <si>
+    <t>Etudes finno-ougriennes</t>
+  </si>
+  <si>
+    <t>Adéfo &amp; Presses de l'Inalco;Klincksieck [u.a.];L'Harmattan;Akad. Kiadó</t>
+  </si>
+  <si>
+    <t>Paris;Budapest</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>0209-7699;0071-2051</t>
+  </si>
+  <si>
+    <t>1.1964 - 22.1989/90(1990); 23.1991 -</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1a;12;19</t>
+  </si>
+  <si>
+    <t>217995-7</t>
+  </si>
+  <si>
+    <t>b;mg</t>
+  </si>
+  <si>
+    <t>Ural-altaische Jahrbücher</t>
+  </si>
+  <si>
+    <t>Eurolingua</t>
+  </si>
+  <si>
+    <t>Berlin [u.a.]</t>
+  </si>
+  <si>
+    <t>0042-0786</t>
+  </si>
+  <si>
+    <t>890;390</t>
+  </si>
+  <si>
+    <t>7,50;6,21;6,23</t>
+  </si>
+  <si>
+    <t>1160713-0;307804-8</t>
+  </si>
+  <si>
+    <t>217996-9</t>
+  </si>
+  <si>
+    <t>24.1952 - 64.1992</t>
+  </si>
+  <si>
+    <t>1006187-3</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Vogul népköltési gyüjtemény</t>
+  </si>
+  <si>
+    <t>1410938-4</t>
+  </si>
+  <si>
+    <t>1.1892 - 3.1893,1; 4.1897,1</t>
+  </si>
+  <si>
+    <t>1217646-1</t>
+  </si>
+  <si>
+    <t>Literatura o Respublike Komi</t>
+  </si>
+  <si>
+    <t>Komi Knižnoe Izd.</t>
+  </si>
+  <si>
+    <t>Syktyvkar</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>420404-9</t>
+  </si>
+  <si>
+    <t>1990(1993) -</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1023548-6</t>
+  </si>
+  <si>
+    <t>Selkupskij (ostjako samoedskij) jazyk</t>
+  </si>
+  <si>
+    <t>Leningrad</t>
+  </si>
+  <si>
+    <t>rus;eng</t>
+  </si>
+  <si>
+    <t>1.1935[?]</t>
+  </si>
+  <si>
+    <t>1023854-2</t>
+  </si>
+  <si>
+    <t>Jazyki i pis'mennost narodov severa</t>
+  </si>
+  <si>
+    <t>1.1937[?]</t>
+  </si>
+  <si>
+    <t>1024225-9</t>
+  </si>
+  <si>
+    <t>Linguistica Uralica</t>
+  </si>
+  <si>
+    <t>Tallin</t>
+  </si>
+  <si>
+    <t>ger;rus;eng</t>
+  </si>
+  <si>
+    <t>0868-4731;0132-0777</t>
+  </si>
+  <si>
+    <t>401622-1</t>
+  </si>
+  <si>
+    <t>26.1990 -</t>
+  </si>
+  <si>
+    <t>1238935-3</t>
+  </si>
+  <si>
+    <t>b;ra</t>
+  </si>
+  <si>
+    <t>Philologia Fenno-Ugrica</t>
+  </si>
+  <si>
+    <t>Verl. Wiss. &amp; Öffentlichkeit;Hochschul-Verl.</t>
+  </si>
+  <si>
+    <t>Freiburg, Br.</t>
+  </si>
+  <si>
+    <t>0943-9471</t>
+  </si>
+  <si>
+    <t>400;890</t>
+  </si>
+  <si>
+    <t>2953879-8</t>
+  </si>
+  <si>
+    <t>1.1994/95(1994)-16/17 (2010/2011)</t>
+  </si>
+  <si>
+    <t>1043467-7</t>
+  </si>
+  <si>
+    <t>Kraj mordovskij</t>
+  </si>
+  <si>
+    <t>1975 - 1977 nachgewiesen</t>
+  </si>
+  <si>
+    <t>300253-6</t>
+  </si>
+  <si>
+    <t>b;rb;mg</t>
+  </si>
+  <si>
+    <t>Finnisch-ugrische Forschungen</t>
+  </si>
+  <si>
+    <t>Finnisch-Ugrische Ges.</t>
+  </si>
+  <si>
+    <t>ger;eng</t>
+  </si>
+  <si>
+    <t>0355-1253</t>
+  </si>
+  <si>
+    <t>1.1901 -</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1a;16;18;19</t>
-  </si>
-  <si>
-    <t>1085720-5</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Folia Uralica Debreceniensia</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Debrecen</t>
-  </si>
-  <si>
-    <t>0239-1953</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>1.1989 -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1a;12</t>
-  </si>
-  <si>
-    <t>402174-5</t>
-  </si>
-  <si>
-    <t>Keleti szemle</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>7,50;6,23</t>
-  </si>
-  <si>
-    <t>1.1900 - 21.1932; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1095206-8</t>
-  </si>
-  <si>
-    <t>Carelia</t>
-  </si>
-  <si>
-    <t>Periodika-Kustantamo</t>
-  </si>
-  <si>
-    <t>Petroskoi</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>0868-6513</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>7,50;7,41</t>
-  </si>
-  <si>
-    <t>1095219-6</t>
-  </si>
-  <si>
-    <t>1990,7 -</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>779550-6</t>
-  </si>
-  <si>
-    <t>Fenno-Ugrica Suecana</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>0348-3045</t>
-  </si>
-  <si>
-    <t>1.1978 - 12.1994[?]</t>
-  </si>
-  <si>
-    <t>791711-9</t>
-  </si>
-  <si>
-    <t>Finno-ugristika</t>
-  </si>
-  <si>
-    <t>Tip. Krasnyj Oktjabr'</t>
-  </si>
-  <si>
-    <t>Saransk</t>
-  </si>
-  <si>
-    <t>rus</t>
-  </si>
-  <si>
-    <t>1.1978 - 3.1980; 4.2000 - 9.2010; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1121418-1</t>
-  </si>
-  <si>
-    <t>Pačemyš</t>
-  </si>
-  <si>
-    <t>Periodika Marij Ėl</t>
-  </si>
-  <si>
-    <t>Joškar-Ola</t>
-  </si>
-  <si>
-    <t>0130-9269</t>
-  </si>
-  <si>
-    <t>Nachgewiesen Nr. 401.1990 -</t>
-  </si>
-  <si>
-    <t>1125013-6</t>
-  </si>
-  <si>
-    <t>Mokša</t>
-  </si>
-  <si>
-    <t>rus;mdf</t>
-  </si>
-  <si>
-    <t>0134-434X</t>
-  </si>
-  <si>
-    <t>050;800;890</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1992 -</t>
-  </si>
-  <si>
-    <t>83985-1</t>
-  </si>
-  <si>
-    <t>Literatura o Permskoj Oblasti</t>
-  </si>
-  <si>
-    <t>Permskoe Kniž. Izdat.</t>
-  </si>
-  <si>
-    <t>Perm'</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1961(1962) -</t>
-  </si>
-  <si>
-    <t>1139569-2</t>
-  </si>
-  <si>
-    <t>Ončyko</t>
-  </si>
-  <si>
-    <t>chm</t>
-  </si>
-  <si>
-    <t>0134-4358</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1957 -  ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>1139588-6</t>
-  </si>
-  <si>
-    <t>Keneš</t>
-  </si>
-  <si>
-    <t>Ižkar</t>
-  </si>
-  <si>
-    <t>0206-4227;0869-883X</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1991 -</t>
-  </si>
-  <si>
-    <t>1152517-4</t>
-  </si>
-  <si>
-    <t>d;mg</t>
-  </si>
-  <si>
-    <t>Lexica Societatis Fenno-Ugricae</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>0780-8070;0356-5769</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>1.1913 -</t>
-  </si>
-  <si>
-    <t>1170401-9</t>
-  </si>
-  <si>
-    <t>Trudy po lingvistike</t>
-  </si>
-  <si>
-    <t>Moskva [u.a.]</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1.1937 - 5.1937[?]</t>
-  </si>
-  <si>
-    <t>1170696-X</t>
-  </si>
-  <si>
-    <t>Bibliotheca Hungarico-Estica Instituti Litterarum Hungarici Universitatis Tartuensis</t>
-  </si>
-  <si>
-    <t>Tartu</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>15.1934/35 nachgewiesen</t>
-  </si>
-  <si>
-    <t>216537-5</t>
-  </si>
-  <si>
-    <t>Etudes finno-ougriennes</t>
-  </si>
-  <si>
-    <t>Adéfo &amp; Presses de l'Inalco;Klincksieck [u.a.];L'Harmattan;Akad. Kiadó</t>
-  </si>
-  <si>
-    <t>Paris;Budapest</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>0209-7699;0071-2051</t>
-  </si>
-  <si>
-    <t>1.1964 - 22.1989/90(1990); 23.1991 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1a;12;19</t>
-  </si>
-  <si>
-    <t>217995-7</t>
-  </si>
-  <si>
-    <t>b;mg</t>
-  </si>
-  <si>
-    <t>Ural-altaische Jahrbücher</t>
-  </si>
-  <si>
-    <t>Eurolingua</t>
-  </si>
-  <si>
-    <t>Berlin [u.a.]</t>
-  </si>
-  <si>
-    <t>0042-0786</t>
-  </si>
-  <si>
-    <t>890;390</t>
-  </si>
-  <si>
-    <t>7,50;6,21;6,23</t>
-  </si>
-  <si>
-    <t>1160713-0;307804-8</t>
-  </si>
-  <si>
-    <t>217996-9</t>
-  </si>
-  <si>
-    <t>24.1952 - 64.1992</t>
-  </si>
-  <si>
-    <t>1006187-3</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Vogul népköltési gyüjtemény</t>
-  </si>
-  <si>
-    <t>1410938-4</t>
-  </si>
-  <si>
-    <t>1.1892 - 3.1893,1; 4.1897,1</t>
-  </si>
-  <si>
-    <t>1217646-1</t>
-  </si>
-  <si>
-    <t>Literatura o Respublike Komi</t>
-  </si>
-  <si>
-    <t>Komi Knižnoe Izd.</t>
-  </si>
-  <si>
-    <t>Syktyvkar</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>420404-9</t>
-  </si>
-  <si>
-    <t>1990(1993) -</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1023548-6</t>
-  </si>
-  <si>
-    <t>Selkupskij (ostjako samoedskij) jazyk</t>
-  </si>
-  <si>
-    <t>Leningrad</t>
-  </si>
-  <si>
-    <t>rus;eng</t>
-  </si>
-  <si>
-    <t>1.1935[?]</t>
-  </si>
-  <si>
-    <t>1023854-2</t>
-  </si>
-  <si>
-    <t>Jazyki i pis'mennost narodov severa</t>
-  </si>
-  <si>
-    <t>1.1937[?]</t>
-  </si>
-  <si>
-    <t>1024225-9</t>
-  </si>
-  <si>
-    <t>Linguistica Uralica</t>
-  </si>
-  <si>
-    <t>Tallin</t>
-  </si>
-  <si>
-    <t>ger;rus;eng</t>
-  </si>
-  <si>
-    <t>0868-4731;0132-0777</t>
-  </si>
-  <si>
-    <t>401622-1</t>
-  </si>
-  <si>
-    <t>26.1990 -</t>
-  </si>
-  <si>
-    <t>1238935-3</t>
-  </si>
-  <si>
-    <t>b;ra</t>
-  </si>
-  <si>
-    <t>Philologia Fenno-Ugrica</t>
-  </si>
-  <si>
-    <t>Verl. Wiss. &amp; Öffentlichkeit;Hochschul-Verl.</t>
-  </si>
-  <si>
-    <t>Freiburg, Br.</t>
-  </si>
-  <si>
-    <t>0943-9471</t>
-  </si>
-  <si>
-    <t>400;890</t>
-  </si>
-  <si>
-    <t>2953879-8</t>
-  </si>
-  <si>
-    <t>1.1994/95(1994)-16/17 (2010/2011)</t>
-  </si>
-  <si>
-    <t>1043467-7</t>
-  </si>
-  <si>
-    <t>Kraj mordovskij</t>
-  </si>
-  <si>
-    <t>1975 - 1977 nachgewiesen</t>
-  </si>
-  <si>
-    <t>300253-6</t>
-  </si>
-  <si>
-    <t>b;rb;mg</t>
-  </si>
-  <si>
-    <t>Finnisch-ugrische Forschungen</t>
-  </si>
-  <si>
-    <t>Finnisch-Ugrische Ges.</t>
-  </si>
-  <si>
-    <t>ger;eng</t>
-  </si>
-  <si>
-    <t>0355-1253</t>
-  </si>
-  <si>
-    <t>1.1901 -</t>
-  </si>
-  <si>
     <t>1a;12;16;46</t>
   </si>
   <si>
@@ -716,12 +725,6 @@
   </si>
   <si>
     <t>Nachgewiesen 1995 -</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>2429485-8</t>
@@ -1870,39 +1873,39 @@
         <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
         <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1911,13 +1914,13 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
@@ -1938,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1956,30 +1959,30 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -1991,10 +1994,10 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -2015,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -2033,7 +2036,7 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y4" t="s">
         <v>32</v>
@@ -2041,37 +2044,37 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -2089,10 +2092,10 @@
         <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -2110,30 +2113,30 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -2142,13 +2145,13 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -2169,7 +2172,7 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
         <v>32</v>
@@ -2187,7 +2190,7 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -2195,25 +2198,25 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2222,10 +2225,10 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -2246,7 +2249,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -2264,7 +2267,7 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y7" t="s">
         <v>32</v>
@@ -2272,22 +2275,22 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -2296,13 +2299,13 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
@@ -2323,7 +2326,7 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -2341,7 +2344,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="s">
         <v>32</v>
@@ -2349,37 +2352,37 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
@@ -2400,7 +2403,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -2418,33 +2421,33 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -2453,10 +2456,10 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -2477,7 +2480,7 @@
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -2495,7 +2498,7 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y10" t="s">
         <v>32</v>
@@ -2503,37 +2506,37 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -2554,7 +2557,7 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -2572,30 +2575,30 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -2604,13 +2607,13 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -2631,7 +2634,7 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
@@ -2649,30 +2652,30 @@
         <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -2681,13 +2684,13 @@
         <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
@@ -2708,7 +2711,7 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -2726,7 +2729,7 @@
         <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -2734,25 +2737,25 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -2761,10 +2764,10 @@
         <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -2785,7 +2788,7 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -2803,7 +2806,7 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y14" t="s">
         <v>32</v>
@@ -2811,25 +2814,25 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -2838,10 +2841,10 @@
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
@@ -2862,7 +2865,7 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
@@ -2880,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y15" t="s">
         <v>32</v>
@@ -2888,37 +2891,37 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -2939,7 +2942,7 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S16" t="s">
         <v>32</v>
@@ -2957,30 +2960,30 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -2989,13 +2992,13 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -3010,13 +3013,13 @@
         <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
@@ -3034,7 +3037,7 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y17" t="s">
         <v>32</v>
@@ -3042,22 +3045,22 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -3069,10 +3072,10 @@
         <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
@@ -3087,13 +3090,13 @@
         <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -3111,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y18" t="s">
         <v>32</v>
@@ -3119,25 +3122,25 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -3146,10 +3149,10 @@
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -3167,10 +3170,10 @@
         <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S19" t="s">
         <v>32</v>
@@ -3188,33 +3191,33 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
@@ -3223,10 +3226,10 @@
         <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
@@ -3247,7 +3250,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -3265,7 +3268,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y20" t="s">
         <v>32</v>
@@ -3273,25 +3276,25 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -3300,10 +3303,10 @@
         <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -3324,7 +3327,7 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -3342,7 +3345,7 @@
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y21" t="s">
         <v>32</v>
@@ -3350,37 +3353,37 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H22" t="s">
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -3398,10 +3401,10 @@
         <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="R22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -3419,30 +3422,30 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3451,10 +3454,10 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
         <v>35</v>
@@ -3472,13 +3475,13 @@
         <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q23" t="s">
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -3496,7 +3499,7 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y23" t="s">
         <v>32</v>
@@ -3504,25 +3507,25 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -3531,10 +3534,10 @@
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
@@ -3555,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -3573,7 +3576,7 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y24" t="s">
         <v>32</v>
@@ -3581,37 +3584,37 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -3632,7 +3635,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -3641,39 +3644,39 @@
         <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s">
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -3682,13 +3685,13 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -3706,10 +3709,10 @@
         <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R26" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -3727,45 +3730,45 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -3786,7 +3789,7 @@
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S27" t="s">
         <v>32</v>
@@ -3804,7 +3807,7 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y27" t="s">
         <v>32</v>
@@ -3812,22 +3815,22 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -3839,10 +3842,10 @@
         <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
@@ -3863,7 +3866,7 @@
         <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
@@ -3881,7 +3884,7 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y28" t="s">
         <v>32</v>
@@ -3889,25 +3892,25 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
@@ -3916,10 +3919,10 @@
         <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
@@ -3940,7 +3943,7 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S29" t="s">
         <v>32</v>
@@ -3958,7 +3961,7 @@
         <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y29" t="s">
         <v>32</v>
@@ -3966,37 +3969,37 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -4017,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -4026,54 +4029,54 @@
         <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s">
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -4094,7 +4097,7 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -4112,7 +4115,7 @@
         <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y31" t="s">
         <v>32</v>
@@ -4120,22 +4123,22 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -4144,13 +4147,13 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
@@ -4171,7 +4174,7 @@
         <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="S32" t="s">
         <v>32</v>
@@ -4180,54 +4183,54 @@
         <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s">
         <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
@@ -4245,10 +4248,10 @@
         <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S33" t="s">
         <v>32</v>
@@ -4266,45 +4269,45 @@
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
@@ -4325,13 +4328,13 @@
         <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U34" t="s">
         <v>32</v>
@@ -4343,33 +4346,33 @@
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H35" t="s">
         <v>32</v>
@@ -4378,10 +4381,10 @@
         <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
@@ -4402,7 +4405,7 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S35" t="s">
         <v>32</v>
@@ -4420,7 +4423,7 @@
         <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y35" t="s">
         <v>32</v>
@@ -4428,22 +4431,22 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -4455,10 +4458,10 @@
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -4479,7 +4482,7 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
@@ -4497,30 +4500,30 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -4529,13 +4532,13 @@
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -4556,7 +4559,7 @@
         <v>32</v>
       </c>
       <c r="R37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S37" t="s">
         <v>32</v>
@@ -4574,7 +4577,7 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y37" t="s">
         <v>32</v>
@@ -4582,22 +4585,22 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -4606,13 +4609,13 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J38" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L38" t="s">
         <v>32</v>
@@ -4633,7 +4636,7 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S38" t="s">
         <v>32</v>
@@ -4651,7 +4654,7 @@
         <v>32</v>
       </c>
       <c r="X38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y38" t="s">
         <v>32</v>
@@ -4659,25 +4662,25 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s">
         <v>32</v>
@@ -4686,10 +4689,10 @@
         <v>32</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L39" t="s">
         <v>32</v>
@@ -4710,7 +4713,7 @@
         <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -4728,7 +4731,7 @@
         <v>32</v>
       </c>
       <c r="X39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y39" t="s">
         <v>32</v>
@@ -4736,37 +4739,37 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L40" t="s">
         <v>32</v>
@@ -4781,13 +4784,13 @@
         <v>32</v>
       </c>
       <c r="P40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S40" t="s">
         <v>32</v>
@@ -4805,45 +4808,45 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L41" t="s">
         <v>32</v>
@@ -4864,7 +4867,7 @@
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -4882,7 +4885,7 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y41" t="s">
         <v>32</v>
@@ -4890,22 +4893,22 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4914,13 +4917,13 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L42" t="s">
         <v>32</v>
@@ -4941,7 +4944,7 @@
         <v>32</v>
       </c>
       <c r="R42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S42" t="s">
         <v>32</v>
@@ -4959,7 +4962,7 @@
         <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y42" t="s">
         <v>32</v>
@@ -4967,25 +4970,25 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -4994,10 +4997,10 @@
         <v>32</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L43" t="s">
         <v>32</v>
@@ -5018,7 +5021,7 @@
         <v>32</v>
       </c>
       <c r="R43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S43" t="s">
         <v>32</v>
@@ -5036,7 +5039,7 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y43" t="s">
         <v>32</v>
@@ -5044,37 +5047,37 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
@@ -5095,7 +5098,7 @@
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S44" t="s">
         <v>32</v>
@@ -5113,7 +5116,7 @@
         <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y44" t="s">
         <v>32</v>
@@ -5121,25 +5124,25 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s">
         <v>32</v>
@@ -5148,10 +5151,10 @@
         <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L45" t="s">
         <v>32</v>
@@ -5172,7 +5175,7 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S45" t="s">
         <v>32</v>
@@ -5190,7 +5193,7 @@
         <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y45" t="s">
         <v>32</v>
@@ -5198,37 +5201,37 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K46" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s">
         <v>32</v>
@@ -5249,7 +5252,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -5258,16 +5261,16 @@
         <v>32</v>
       </c>
       <c r="U46" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="V46" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y46" t="s">
         <v>32</v>
@@ -5275,37 +5278,37 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L47" t="s">
         <v>32</v>
@@ -5326,7 +5329,7 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -5344,33 +5347,33 @@
         <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s">
         <v>32</v>
@@ -5379,10 +5382,10 @@
         <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L48" t="s">
         <v>32</v>
@@ -5403,7 +5406,7 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S48" t="s">
         <v>32</v>
@@ -5421,7 +5424,7 @@
         <v>32</v>
       </c>
       <c r="X48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y48" t="s">
         <v>32</v>
@@ -5429,25 +5432,25 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s">
         <v>32</v>
@@ -5456,10 +5459,10 @@
         <v>32</v>
       </c>
       <c r="J49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L49" t="s">
         <v>32</v>
@@ -5480,7 +5483,7 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S49" t="s">
         <v>32</v>
@@ -5498,7 +5501,7 @@
         <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y49" t="s">
         <v>32</v>
@@ -5506,25 +5509,25 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -5533,10 +5536,10 @@
         <v>32</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -5557,7 +5560,7 @@
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S50" t="s">
         <v>32</v>
@@ -5575,7 +5578,7 @@
         <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y50" t="s">
         <v>32</v>
@@ -5583,37 +5586,37 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E51" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J51" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L51" t="s">
         <v>32</v>
@@ -5634,7 +5637,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S51" t="s">
         <v>32</v>
@@ -5652,30 +5655,30 @@
         <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -5687,10 +5690,10 @@
         <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L52" t="s">
         <v>32</v>
@@ -5711,7 +5714,7 @@
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S52" t="s">
         <v>32</v>
@@ -5729,7 +5732,7 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y52" t="s">
         <v>32</v>
@@ -5737,25 +5740,25 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -5764,13 +5767,13 @@
         <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s">
         <v>32</v>
@@ -5788,7 +5791,7 @@
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S53" t="s">
         <v>32</v>
@@ -5797,16 +5800,16 @@
         <v>32</v>
       </c>
       <c r="U53" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="V53" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y53" t="s">
         <v>32</v>
@@ -5814,25 +5817,25 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E54" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
@@ -5841,10 +5844,10 @@
         <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
         <v>32</v>
@@ -5865,7 +5868,7 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S54" t="s">
         <v>32</v>
@@ -5883,45 +5886,45 @@
         <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E55" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J55" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
@@ -5942,7 +5945,7 @@
         <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S55" t="s">
         <v>32</v>
@@ -5960,7 +5963,7 @@
         <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y55" t="s">
         <v>32</v>
@@ -5968,25 +5971,25 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
@@ -5995,10 +5998,10 @@
         <v>32</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
@@ -6019,7 +6022,7 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
@@ -6037,7 +6040,7 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y56" t="s">
         <v>32</v>
@@ -6045,37 +6048,37 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
@@ -6096,7 +6099,7 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S57" t="s">
         <v>32</v>
@@ -6105,16 +6108,16 @@
         <v>32</v>
       </c>
       <c r="U57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W57" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y57" t="s">
         <v>32</v>
@@ -6122,25 +6125,25 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F58" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s">
         <v>32</v>
@@ -6149,10 +6152,10 @@
         <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K58" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -6173,7 +6176,7 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
@@ -6191,7 +6194,7 @@
         <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y58" t="s">
         <v>32</v>
@@ -6199,25 +6202,25 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H59" t="s">
         <v>32</v>
@@ -6226,10 +6229,10 @@
         <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
@@ -6250,7 +6253,7 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S59" t="s">
         <v>32</v>
@@ -6268,7 +6271,7 @@
         <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y59" t="s">
         <v>32</v>
@@ -6276,25 +6279,25 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -6303,10 +6306,10 @@
         <v>32</v>
       </c>
       <c r="J60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -6327,7 +6330,7 @@
         <v>32</v>
       </c>
       <c r="R60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S60" t="s">
         <v>32</v>
@@ -6345,7 +6348,7 @@
         <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y60" t="s">
         <v>32</v>
@@ -6353,22 +6356,22 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E61" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F61" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -6380,10 +6383,10 @@
         <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
@@ -6404,7 +6407,7 @@
         <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -6422,7 +6425,7 @@
         <v>32</v>
       </c>
       <c r="X61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y61" t="s">
         <v>32</v>
@@ -6430,22 +6433,22 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -6457,10 +6460,10 @@
         <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
@@ -6481,7 +6484,7 @@
         <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="S62" t="s">
         <v>32</v>
@@ -6499,7 +6502,7 @@
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y62" t="s">
         <v>32</v>
@@ -6507,22 +6510,22 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6531,13 +6534,13 @@
         <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
         <v>32</v>
@@ -6558,7 +6561,7 @@
         <v>32</v>
       </c>
       <c r="R63" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S63" t="s">
         <v>32</v>
@@ -6576,7 +6579,7 @@
         <v>32</v>
       </c>
       <c r="X63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y63" t="s">
         <v>32</v>
@@ -6584,37 +6587,37 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E64" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F64" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H64" t="s">
         <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s">
         <v>32</v>
@@ -6635,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S64" t="s">
         <v>32</v>
@@ -6653,7 +6656,7 @@
         <v>32</v>
       </c>
       <c r="X64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y64" t="s">
         <v>32</v>
@@ -6661,22 +6664,22 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F65" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6685,13 +6688,13 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s">
         <v>32</v>
@@ -6712,7 +6715,7 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -6730,7 +6733,7 @@
         <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y65" t="s">
         <v>32</v>
@@ -6738,37 +6741,37 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G66" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J66" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s">
         <v>32</v>
@@ -6786,16 +6789,16 @@
         <v>32</v>
       </c>
       <c r="Q66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S66" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="T66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U66" t="s">
         <v>32</v>
@@ -6807,30 +6810,30 @@
         <v>32</v>
       </c>
       <c r="X66" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y66" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -6845,7 +6848,7 @@
         <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L67" t="s">
         <v>32</v>
@@ -6866,7 +6869,7 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S67" t="s">
         <v>32</v>
@@ -6884,7 +6887,7 @@
         <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y67" t="s">
         <v>32</v>
@@ -6892,22 +6895,22 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E68" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6916,13 +6919,13 @@
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J68" t="s">
         <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
@@ -6943,7 +6946,7 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -6961,7 +6964,7 @@
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y68" t="s">
         <v>32</v>
@@ -6969,25 +6972,25 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s">
         <v>32</v>
@@ -6996,10 +6999,10 @@
         <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
@@ -7020,7 +7023,7 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S69" t="s">
         <v>32</v>
@@ -7038,7 +7041,7 @@
         <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y69" t="s">
         <v>32</v>
@@ -7046,22 +7049,22 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
@@ -7070,13 +7073,13 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J70" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L70" t="s">
         <v>32</v>
@@ -7094,13 +7097,13 @@
         <v>32</v>
       </c>
       <c r="Q70" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="R70" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="S70" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="T70" t="s">
         <v>32</v>
@@ -7115,7 +7118,7 @@
         <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y70" t="s">
         <v>32</v>
@@ -7123,25 +7126,25 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -7150,10 +7153,10 @@
         <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L71" t="s">
         <v>32</v>
@@ -7174,13 +7177,13 @@
         <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="S71" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="T71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U71" t="s">
         <v>32</v>
@@ -7192,33 +7195,33 @@
         <v>32</v>
       </c>
       <c r="X71" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -7227,10 +7230,10 @@
         <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L72" t="s">
         <v>32</v>
@@ -7251,7 +7254,7 @@
         <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="S72" t="s">
         <v>32</v>
@@ -7269,7 +7272,7 @@
         <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y72" t="s">
         <v>32</v>
